--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1625.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1625.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.136249267090166</v>
+        <v>0.8826830387115479</v>
       </c>
       <c r="B1">
-        <v>2.854464821306144</v>
+        <v>2.983670949935913</v>
       </c>
       <c r="C1">
-        <v>4.188204383852025</v>
+        <v>4.459150791168213</v>
       </c>
       <c r="D1">
-        <v>2.242706454969505</v>
+        <v>3.021851778030396</v>
       </c>
       <c r="E1">
-        <v>1.080735146139768</v>
+        <v>1.412309408187866</v>
       </c>
     </row>
   </sheetData>
